--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H2">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I2">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J2">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>14.60170062427992</v>
+        <v>31.56755694408778</v>
       </c>
       <c r="R2">
-        <v>14.60170062427992</v>
+        <v>284.10801249679</v>
       </c>
       <c r="S2">
-        <v>0.0009312806495046661</v>
+        <v>0.001698728566736057</v>
       </c>
       <c r="T2">
-        <v>0.0009312806495046661</v>
+        <v>0.001698728566736058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H3">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I3">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J3">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>94.91201502708198</v>
+        <v>111.6735010944622</v>
       </c>
       <c r="R3">
-        <v>94.91201502708198</v>
+        <v>1005.06150985016</v>
       </c>
       <c r="S3">
-        <v>0.006053385511358987</v>
+        <v>0.006009428185798282</v>
       </c>
       <c r="T3">
-        <v>0.006053385511358987</v>
+        <v>0.006009428185798282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H4">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I4">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J4">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>27.05488986804485</v>
+        <v>43.67132962933911</v>
       </c>
       <c r="R4">
-        <v>27.05488986804485</v>
+        <v>393.041966664052</v>
       </c>
       <c r="S4">
-        <v>0.001725531570390798</v>
+        <v>0.002350062607635502</v>
       </c>
       <c r="T4">
-        <v>0.001725531570390798</v>
+        <v>0.002350062607635503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H5">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I5">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J5">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>27.45041578015291</v>
+        <v>32.31691730717956</v>
       </c>
       <c r="R5">
-        <v>27.45041578015291</v>
+        <v>290.852255764616</v>
       </c>
       <c r="S5">
-        <v>0.001750757784638159</v>
+        <v>0.001739053507238053</v>
       </c>
       <c r="T5">
-        <v>0.001750757784638159</v>
+        <v>0.001739053507238054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H6">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I6">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J6">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>26.60772234975043</v>
+        <v>32.775772469884</v>
       </c>
       <c r="R6">
-        <v>26.60772234975043</v>
+        <v>294.981952228956</v>
       </c>
       <c r="S6">
-        <v>0.001697011710438173</v>
+        <v>0.001763745642085896</v>
       </c>
       <c r="T6">
-        <v>0.001697011710438173</v>
+        <v>0.001763745642085896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H7">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I7">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J7">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>9.181474879944112</v>
+        <v>11.60847103194178</v>
       </c>
       <c r="R7">
-        <v>9.181474879944112</v>
+        <v>104.476239287476</v>
       </c>
       <c r="S7">
-        <v>0.0005855845226265758</v>
+        <v>0.0006246806299586243</v>
       </c>
       <c r="T7">
-        <v>0.0005855845226265758</v>
+        <v>0.0006246806299586243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H8">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I8">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J8">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>678.7014224235346</v>
+        <v>1274.760124979105</v>
       </c>
       <c r="R8">
-        <v>678.7014224235346</v>
+        <v>11472.84112481195</v>
       </c>
       <c r="S8">
-        <v>0.04328684156442224</v>
+        <v>0.06859800534686608</v>
       </c>
       <c r="T8">
-        <v>0.04328684156442224</v>
+        <v>0.06859800534686608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H9">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I9">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J9">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>4411.603912550505</v>
+        <v>4509.595926734921</v>
       </c>
       <c r="R9">
-        <v>4411.603912550505</v>
+        <v>40586.36334061428</v>
       </c>
       <c r="S9">
-        <v>0.2813673189687087</v>
+        <v>0.2426725463345021</v>
       </c>
       <c r="T9">
-        <v>0.2813673189687087</v>
+        <v>0.2426725463345021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H10">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I10">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J10">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>1257.537920372179</v>
+        <v>1763.534305644974</v>
       </c>
       <c r="R10">
-        <v>1257.537920372179</v>
+        <v>15871.80875080477</v>
       </c>
       <c r="S10">
-        <v>0.08020440641781092</v>
+        <v>0.09490015678832016</v>
       </c>
       <c r="T10">
-        <v>0.08020440641781092</v>
+        <v>0.09490015678832017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H11">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I11">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J11">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>1275.922354217284</v>
+        <v>1305.020772383692</v>
       </c>
       <c r="R11">
-        <v>1275.922354217284</v>
+        <v>11745.18695145323</v>
       </c>
       <c r="S11">
-        <v>0.08137694569474802</v>
+        <v>0.07022640586848854</v>
       </c>
       <c r="T11">
-        <v>0.08137694569474802</v>
+        <v>0.07022640586848855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H12">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I12">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J12">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>1236.753133823181</v>
+        <v>1323.550247616522</v>
       </c>
       <c r="R12">
-        <v>1236.753133823181</v>
+        <v>11911.9522285487</v>
       </c>
       <c r="S12">
-        <v>0.07887877524544047</v>
+        <v>0.07122352290736449</v>
       </c>
       <c r="T12">
-        <v>0.07887877524544047</v>
+        <v>0.07122352290736449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H13">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I13">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J13">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>426.7639928599979</v>
+        <v>468.7729243572621</v>
       </c>
       <c r="R13">
-        <v>426.7639928599979</v>
+        <v>4218.956319215358</v>
       </c>
       <c r="S13">
-        <v>0.02721854520116646</v>
+        <v>0.02522583421100703</v>
       </c>
       <c r="T13">
-        <v>0.02721854520116646</v>
+        <v>0.02522583421100703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H14">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I14">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J14">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>35.66004506515117</v>
+        <v>87.54452869206834</v>
       </c>
       <c r="R14">
-        <v>35.66004506515117</v>
+        <v>787.900758228615</v>
       </c>
       <c r="S14">
-        <v>0.002274359047905584</v>
+        <v>0.00471098831037393</v>
       </c>
       <c r="T14">
-        <v>0.002274359047905584</v>
+        <v>0.00471098831037393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H15">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I15">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J15">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>231.7926397875972</v>
+        <v>309.6978343311067</v>
       </c>
       <c r="R15">
-        <v>231.7926397875972</v>
+        <v>2787.28050897996</v>
       </c>
       <c r="S15">
-        <v>0.01478348349183744</v>
+        <v>0.01666560890873985</v>
       </c>
       <c r="T15">
-        <v>0.01478348349183744</v>
+        <v>0.01666560890873985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H16">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I16">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J16">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>66.07302921434599</v>
+        <v>121.1112401421513</v>
       </c>
       <c r="R16">
-        <v>66.07302921434599</v>
+        <v>1090.001161279362</v>
       </c>
       <c r="S16">
-        <v>0.004214066234117944</v>
+        <v>0.00651729634151606</v>
       </c>
       <c r="T16">
-        <v>0.004214066234117944</v>
+        <v>0.006517296341516061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H17">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I17">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J17">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>67.03897641550661</v>
+        <v>89.62268760451067</v>
       </c>
       <c r="R17">
-        <v>67.03897641550661</v>
+        <v>806.604188440596</v>
       </c>
       <c r="S17">
-        <v>0.004275673300310512</v>
+        <v>0.004822819197922042</v>
       </c>
       <c r="T17">
-        <v>0.004275673300310512</v>
+        <v>0.004822819197922043</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H18">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I18">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J18">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>64.98096368962653</v>
+        <v>90.895204797654</v>
       </c>
       <c r="R18">
-        <v>64.98096368962653</v>
+        <v>818.056843178886</v>
       </c>
       <c r="S18">
-        <v>0.004144415477858001</v>
+        <v>0.00489129650554151</v>
       </c>
       <c r="T18">
-        <v>0.004144415477858001</v>
+        <v>0.00489129650554151</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H19">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I19">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J19">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>22.42285446113965</v>
+        <v>32.19311925616734</v>
       </c>
       <c r="R19">
-        <v>22.42285446113965</v>
+        <v>289.738073305506</v>
       </c>
       <c r="S19">
-        <v>0.001430105369479764</v>
+        <v>0.00173239162693692</v>
       </c>
       <c r="T19">
-        <v>0.001430105369479764</v>
+        <v>0.00173239162693692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H20">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I20">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J20">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>26.20262579574963</v>
+        <v>56.17043967170389</v>
       </c>
       <c r="R20">
-        <v>26.20262579574963</v>
+        <v>505.533957045335</v>
       </c>
       <c r="S20">
-        <v>0.001671175091017648</v>
+        <v>0.003022670732659229</v>
       </c>
       <c r="T20">
-        <v>0.001671175091017648</v>
+        <v>0.003022670732659229</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H21">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I21">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J21">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>170.3187921234235</v>
+        <v>198.7087460478711</v>
       </c>
       <c r="R21">
-        <v>170.3187921234235</v>
+        <v>1788.37871443084</v>
       </c>
       <c r="S21">
-        <v>0.01086274807523484</v>
+        <v>0.01069301067452541</v>
       </c>
       <c r="T21">
-        <v>0.01086274807523484</v>
+        <v>0.01069301067452541</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H22">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I22">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J22">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>48.54976645520406</v>
+        <v>77.70755876587755</v>
       </c>
       <c r="R22">
-        <v>48.54976645520406</v>
+        <v>699.368028892898</v>
       </c>
       <c r="S22">
-        <v>0.003096451516237821</v>
+        <v>0.004181636550485098</v>
       </c>
       <c r="T22">
-        <v>0.003096451516237821</v>
+        <v>0.004181636550485099</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H23">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I23">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J23">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>49.2595342921269</v>
+        <v>57.50383082205378</v>
       </c>
       <c r="R23">
-        <v>49.2595342921269</v>
+        <v>517.534477398484</v>
       </c>
       <c r="S23">
-        <v>0.003141719740068401</v>
+        <v>0.003094423818960594</v>
       </c>
       <c r="T23">
-        <v>0.003141719740068401</v>
+        <v>0.003094423818960595</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H24">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I24">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J24">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>47.74732820151192</v>
+        <v>58.320305035766</v>
       </c>
       <c r="R24">
-        <v>47.74732820151192</v>
+        <v>524.8827453218939</v>
       </c>
       <c r="S24">
-        <v>0.003045272873604702</v>
+        <v>0.003138360322291939</v>
       </c>
       <c r="T24">
-        <v>0.003045272873604702</v>
+        <v>0.003138360322291939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H25">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I25">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J25">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>16.47607745992361</v>
+        <v>20.65579300087489</v>
       </c>
       <c r="R25">
-        <v>16.47607745992361</v>
+        <v>185.902137007874</v>
       </c>
       <c r="S25">
-        <v>0.001050826373789151</v>
+        <v>0.001111539473939068</v>
       </c>
       <c r="T25">
-        <v>0.001050826373789151</v>
+        <v>0.001111539473939068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H26">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I26">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J26">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>86.62440059677154</v>
+        <v>166.4438413230367</v>
       </c>
       <c r="R26">
-        <v>86.62440059677154</v>
+        <v>1497.99457190733</v>
       </c>
       <c r="S26">
-        <v>0.005524810439995725</v>
+        <v>0.008956756093400511</v>
       </c>
       <c r="T26">
-        <v>0.005524810439995725</v>
+        <v>0.008956756093400513</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H27">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I27">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J27">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>563.0643048167688</v>
+        <v>588.8123217478134</v>
       </c>
       <c r="R27">
-        <v>563.0643048167688</v>
+        <v>5299.31089573032</v>
       </c>
       <c r="S27">
-        <v>0.03591163145960698</v>
+        <v>0.03168545203453017</v>
       </c>
       <c r="T27">
-        <v>0.03591163145960698</v>
+        <v>0.03168545203453017</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H28">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I28">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J28">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>160.5027851436742</v>
+        <v>230.2624771396226</v>
       </c>
       <c r="R28">
-        <v>160.5027851436742</v>
+        <v>2072.362294256604</v>
       </c>
       <c r="S28">
-        <v>0.01023669378259698</v>
+        <v>0.0123909952378416</v>
       </c>
       <c r="T28">
-        <v>0.01023669378259698</v>
+        <v>0.01239099523784161</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H29">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I29">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J29">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>162.849237515111</v>
+        <v>170.3949363535813</v>
       </c>
       <c r="R29">
-        <v>162.849237515111</v>
+        <v>1533.554427182232</v>
       </c>
       <c r="S29">
-        <v>0.01038634797321022</v>
+        <v>0.009169374320720512</v>
       </c>
       <c r="T29">
-        <v>0.01038634797321022</v>
+        <v>0.009169374320720512</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H30">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I30">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J30">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>157.8499696096952</v>
+        <v>172.814306849268</v>
       </c>
       <c r="R30">
-        <v>157.8499696096952</v>
+        <v>1555.328761643412</v>
       </c>
       <c r="S30">
-        <v>0.01006750008132414</v>
+        <v>0.009299566650200448</v>
       </c>
       <c r="T30">
-        <v>0.01006750008132414</v>
+        <v>0.009299566650200448</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H31">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I31">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J31">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N31">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q31">
-        <v>54.46898128749272</v>
+        <v>61.20709669949466</v>
       </c>
       <c r="R31">
-        <v>54.46898128749272</v>
+        <v>550.863870295452</v>
       </c>
       <c r="S31">
-        <v>0.003473972626649115</v>
+        <v>0.003293705744621487</v>
       </c>
       <c r="T31">
-        <v>0.003473972626649115</v>
+        <v>0.003293705744621487</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H32">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I32">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J32">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N32">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q32">
-        <v>304.0207153513031</v>
+        <v>608.8220133683661</v>
       </c>
       <c r="R32">
-        <v>304.0207153513031</v>
+        <v>5479.398120315295</v>
       </c>
       <c r="S32">
-        <v>0.01939011191507682</v>
+        <v>0.03276222319004331</v>
       </c>
       <c r="T32">
-        <v>0.01939011191507682</v>
+        <v>0.03276222319004331</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H33">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I33">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J33">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N33">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q33">
-        <v>1976.154658039367</v>
+        <v>2153.770907791409</v>
       </c>
       <c r="R33">
-        <v>1976.154658039367</v>
+        <v>19383.93817012268</v>
       </c>
       <c r="S33">
-        <v>0.1260370035528879</v>
+        <v>0.115899756631485</v>
       </c>
       <c r="T33">
-        <v>0.1260370035528879</v>
+        <v>0.115899756631485</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H34">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I34">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J34">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N34">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q34">
-        <v>563.3074655534751</v>
+        <v>842.2592498526384</v>
       </c>
       <c r="R34">
-        <v>563.3074655534751</v>
+        <v>7580.333248673746</v>
       </c>
       <c r="S34">
-        <v>0.03592713998800658</v>
+        <v>0.04532406010564986</v>
       </c>
       <c r="T34">
-        <v>0.03592713998800658</v>
+        <v>0.04532406010564988</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H35">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I35">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J35">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N35">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q35">
-        <v>571.542675535737</v>
+        <v>623.2744173286742</v>
       </c>
       <c r="R35">
-        <v>571.542675535737</v>
+        <v>5609.469755958068</v>
       </c>
       <c r="S35">
-        <v>0.0364523727604369</v>
+        <v>0.03353994290743761</v>
       </c>
       <c r="T35">
-        <v>0.0364523727604369</v>
+        <v>0.03353994290743763</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H36">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I36">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J36">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N36">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q36">
-        <v>553.9970302629666</v>
+        <v>632.124044954182</v>
       </c>
       <c r="R36">
-        <v>553.9970302629666</v>
+        <v>5689.116404587638</v>
       </c>
       <c r="S36">
-        <v>0.03533333051008192</v>
+        <v>0.03401616332826566</v>
       </c>
       <c r="T36">
-        <v>0.03533333051008192</v>
+        <v>0.03401616332826567</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H37">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I37">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J37">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N37">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q37">
-        <v>191.1666752254266</v>
+        <v>223.8846901682331</v>
       </c>
       <c r="R37">
-        <v>191.1666752254266</v>
+        <v>2014.962211514098</v>
       </c>
       <c r="S37">
-        <v>0.01219240347741087</v>
+        <v>0.01204779069591124</v>
       </c>
       <c r="T37">
-        <v>0.01219240347741087</v>
+        <v>0.01204779069591124</v>
       </c>
     </row>
   </sheetData>
